--- a/assets/files/excel/3417.xlsx
+++ b/assets/files/excel/3417.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="aOOa11uqeslUGm7vvIo+9jxM21hmdZM0hEu/fMdow3jEOYuPvfgNszzKLhT1yI8/yuuPI0Ucct7mnfiE+NDW/g==" workbookSaltValue="ndKvrUO3rjoIEaB/zWpXSA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="QtUvnO1ClrmrGhltdccNCghs7ZPQBnR854VoBHkhoUBSX34erVrcOT4PSo97QXuLi/BljehhrqoagFjz3ES2VQ==" workbookSaltValue="JSrY6rVlZLobG7YctEQT9Q==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -1759,11 +1759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="111594544"/>
-        <c:axId val="111595104"/>
+        <c:axId val="251062976"/>
+        <c:axId val="251063368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111594544"/>
+        <c:axId val="251062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,12 +1799,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111595104"/>
+        <c:crossAx val="251063368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111595104"/>
+        <c:axId val="251063368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,7 +1834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111594544"/>
+        <c:crossAx val="251062976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3758,11 +3758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="279087264"/>
-        <c:axId val="279087824"/>
+        <c:axId val="251066896"/>
+        <c:axId val="251064152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="279087264"/>
+        <c:axId val="251066896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3772,12 +3772,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279087824"/>
+        <c:crossAx val="251064152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="279087824"/>
+        <c:axId val="251064152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3788,13 +3788,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="279087264"/>
+        <c:crossAx val="251066896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5045,7 +5046,7 @@
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:X3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7033,9 +7034,9 @@
   <dimension ref="A1:Y164"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection sqref="A1:XFD1"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10843,19 +10844,19 @@
         <v>13</v>
       </c>
       <c r="B164" s="31" t="str">
-        <f>IFERROR(IF(B163=SUM(Ст_влад_авто!B12:B162),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(B163-SUM(Ст_влад_авто!B12:B162))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="C164" s="31" t="str">
-        <f>IFERROR(IF(C163=SUM(Ст_влад_авто!C12:C162),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(C163-SUM(Ст_влад_авто!C12:C162))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="D164" s="31" t="str">
-        <f>IFERROR(IF(D163=SUM(Ст_влад_авто!D12:D162),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(D163-SUM(Ст_влад_авто!D12:D162))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="E164" s="31" t="str">
-        <f>IFERROR(IF(E163=SUM(Ст_влад_авто!E12:E162),"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(E163-SUM(Ст_влад_авто!E12:E162))&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
